--- a/data/trans_dic/P34B02_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34B02_R-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05339428636474845</v>
+        <v>0.05345842325966815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06111876176360213</v>
+        <v>0.06006152778193054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1697735140255441</v>
+        <v>0.1710046857053422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03391350640464188</v>
+        <v>0.03148775011330225</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05700744347579217</v>
+        <v>0.05623011699331211</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1811095510859752</v>
+        <v>0.1835484297858863</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05017414867717617</v>
+        <v>0.05117015484614569</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06404846922870615</v>
+        <v>0.06502711297111713</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1853941186559215</v>
+        <v>0.1863025213518933</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1058185449057944</v>
+        <v>0.1032210652648456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1179751849937921</v>
+        <v>0.1186184519262821</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2437990697097534</v>
+        <v>0.246720964864558</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08868544993921919</v>
+        <v>0.09166431304498784</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1239800280440513</v>
+        <v>0.1150999766178331</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2519191530086185</v>
+        <v>0.2506163237344013</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08680696736060582</v>
+        <v>0.08729736746047702</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1063845400169766</v>
+        <v>0.1075477459725051</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2358470047109638</v>
+        <v>0.2339424678263693</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.08946544609032682</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.19186358111684</v>
+        <v>0.1918635811168399</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03166242854415437</v>
+        <v>0.03040359845226736</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08392140881037548</v>
+        <v>0.08113589984441509</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1657892996129658</v>
+        <v>0.169064175425846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02325501164876668</v>
+        <v>0.02208388226304858</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0419061370218194</v>
+        <v>0.0434663770821949</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1461000140912059</v>
+        <v>0.1447487119195115</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03262977165760339</v>
+        <v>0.03304856304141892</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06936197626448537</v>
+        <v>0.07017338401798363</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1644516171592053</v>
+        <v>0.1661218611117447</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07347265539984488</v>
+        <v>0.0740300608424299</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.150001684188354</v>
+        <v>0.1498435384698384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2477760056027629</v>
+        <v>0.2470176948884826</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06923674390081687</v>
+        <v>0.07072054239653144</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09581835369057119</v>
+        <v>0.09911664824573521</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2063518556692303</v>
+        <v>0.2109908783205157</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06305266263830746</v>
+        <v>0.06409382852177663</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1126025903338595</v>
+        <v>0.1143637913610917</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2211794652948176</v>
+        <v>0.217952743972615</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03579387709800856</v>
+        <v>0.03630934594678075</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0441567844216959</v>
+        <v>0.04561020940649193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1343492191595551</v>
+        <v>0.1346486182570565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02231795812676802</v>
+        <v>0.02303895493941601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03530263418221675</v>
+        <v>0.03770465949481822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0798805029158874</v>
+        <v>0.08082373923172605</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03706720500457057</v>
+        <v>0.03661611601330915</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04872648849134857</v>
+        <v>0.04975405538978274</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1209083443107357</v>
+        <v>0.1245988883416148</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07402762303986757</v>
+        <v>0.07174464819835337</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09003275225205061</v>
+        <v>0.09186231536761331</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.205520337103845</v>
+        <v>0.2044012644971988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08781283029494193</v>
+        <v>0.08549334892670352</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1257727797474734</v>
+        <v>0.1325133109871181</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1600546605332131</v>
+        <v>0.160263918556493</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06709052985454458</v>
+        <v>0.06788428310425074</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.087325089748091</v>
+        <v>0.09159222290907537</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1800267514544438</v>
+        <v>0.1816917802074474</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.06080176995883353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1781809020352142</v>
+        <v>0.1781809020352141</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.03766683257061949</v>
@@ -982,7 +982,7 @@
         <v>0.05415387355573677</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.142068334309425</v>
+        <v>0.1420683343094251</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.03922587557761181</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03042293273228084</v>
+        <v>0.02925228613499949</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04730063810339206</v>
+        <v>0.04659838987218497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1540848853533403</v>
+        <v>0.1524102614910065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02508757969138326</v>
+        <v>0.02530408059190682</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0402762423012185</v>
+        <v>0.03986140976717975</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1226389767921659</v>
+        <v>0.1236673356287274</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03113038583654983</v>
+        <v>0.03034738037234409</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04833549246593767</v>
+        <v>0.04783898141130658</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1465693599845294</v>
+        <v>0.1439655175489953</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05534732549014423</v>
+        <v>0.05428090486697296</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07675994066354395</v>
+        <v>0.07521783848928792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.208152821241096</v>
+        <v>0.2069121910344216</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05523603027884764</v>
+        <v>0.05470132686358915</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07236172549858343</v>
+        <v>0.07156339420956975</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1653512703229394</v>
+        <v>0.1668092545426274</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05016524907966258</v>
+        <v>0.04893826491975634</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07007097841743785</v>
+        <v>0.0692080608946634</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1805576454203038</v>
+        <v>0.180804485159829</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04018522337723411</v>
+        <v>0.04031234851325861</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04642491765586745</v>
+        <v>0.04719479923302253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1202865621861416</v>
+        <v>0.1181159373799832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01241116586966845</v>
+        <v>0.01230952136146033</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03278817352019761</v>
+        <v>0.03336670007414097</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08707548519582038</v>
+        <v>0.0877625564030782</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02660101223810593</v>
+        <v>0.02714739411257336</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04423663548084533</v>
+        <v>0.04446745829466712</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1058991013482302</v>
+        <v>0.1083646918908193</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08482875836842124</v>
+        <v>0.08320721312840451</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0894462355988858</v>
+        <v>0.08643201530186062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1868670966803428</v>
+        <v>0.1876160698934158</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.035207345347184</v>
+        <v>0.03348333760846238</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06599698033685621</v>
+        <v>0.06624236134760014</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1247455005276445</v>
+        <v>0.125222169466259</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04824145059726324</v>
+        <v>0.04865309257526998</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06858601625083696</v>
+        <v>0.06970695961980312</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1421787376472772</v>
+        <v>0.1427814902661684</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.1118517310874047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3643473893180879</v>
+        <v>0.3643473893180878</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.04217754566016118</v>
@@ -1200,7 +1200,7 @@
         <v>0.03571350157871548</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.09818078646641303</v>
+        <v>0.09818078646641305</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.04849149045003391</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04761159076171975</v>
+        <v>0.04895437197014019</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07938879309114258</v>
+        <v>0.07528658687065146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.269111325586703</v>
+        <v>0.2724117292863541</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03164164102742528</v>
+        <v>0.03137970596999559</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02541433038125224</v>
+        <v>0.02564199874492406</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07855808097116172</v>
+        <v>0.07893548729722247</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03723587433635853</v>
+        <v>0.03822003258706747</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04028640481703073</v>
+        <v>0.04027367356324041</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1275454041577695</v>
+        <v>0.1262470651736406</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1124372576192983</v>
+        <v>0.1119712464284259</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1533253902973169</v>
+        <v>0.1509808630400384</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4691775844727058</v>
+        <v>0.4681344000517973</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0556774114033142</v>
+        <v>0.05707094684154378</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04795965869850977</v>
+        <v>0.04800166718533407</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1222842097347997</v>
+        <v>0.1222946305364561</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06125591370205332</v>
+        <v>0.06129778990692501</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06592300340702982</v>
+        <v>0.06433630814030369</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1873732172677425</v>
+        <v>0.1867930697869284</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04719536228760081</v>
+        <v>0.04651657968174245</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06639370230061437</v>
+        <v>0.06678582456674241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1782547798876238</v>
+        <v>0.1759292495507827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03258729596607251</v>
+        <v>0.03128092949120614</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0451428356089347</v>
+        <v>0.04509411977700276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1255423640233942</v>
+        <v>0.1250455009834435</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04054120776391919</v>
+        <v>0.04080632435429143</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05748466342419424</v>
+        <v>0.05777941303300334</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.154139401360995</v>
+        <v>0.1546893780361627</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06220225480751513</v>
+        <v>0.06124359840104115</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08495945383854496</v>
+        <v>0.08484447113794327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2094365204598498</v>
+        <v>0.2096211642287037</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04523073189325381</v>
+        <v>0.04523520430152193</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06049246809726235</v>
+        <v>0.05996697388356208</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1461126828594053</v>
+        <v>0.1462009219422559</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05073301040563056</v>
+        <v>0.05094088021872479</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06973879428906446</v>
+        <v>0.07033252123973877</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1731537183007484</v>
+        <v>0.1727498928009837</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23345</v>
+        <v>23373</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26226</v>
+        <v>25772</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>93480</v>
+        <v>94158</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10664</v>
+        <v>9901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19785</v>
+        <v>19515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>88021</v>
+        <v>89206</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37714</v>
+        <v>38463</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49711</v>
+        <v>50471</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>192185</v>
+        <v>193126</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46265</v>
+        <v>45129</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50622</v>
+        <v>50898</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>134240</v>
+        <v>135849</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27887</v>
+        <v>28824</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>43028</v>
+        <v>39946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>122435</v>
+        <v>121802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>65250</v>
+        <v>65618</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>82570</v>
+        <v>83473</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>244485</v>
+        <v>242511</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13260</v>
+        <v>12733</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31657</v>
+        <v>30607</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>80111</v>
+        <v>81694</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7860</v>
+        <v>7465</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15601</v>
+        <v>16181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>61717</v>
+        <v>61146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24694</v>
+        <v>25011</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51987</v>
+        <v>52595</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>148935</v>
+        <v>150447</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30770</v>
+        <v>31004</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56585</v>
+        <v>56525</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>119728</v>
+        <v>119362</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23403</v>
+        <v>23904</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35671</v>
+        <v>36898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>87170</v>
+        <v>89129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47719</v>
+        <v>48507</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>84396</v>
+        <v>85716</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>200310</v>
+        <v>197388</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22497</v>
+        <v>22821</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23046</v>
+        <v>23805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63361</v>
+        <v>63502</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5806</v>
+        <v>5993</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5865</v>
+        <v>6264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14977</v>
+        <v>15154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>32940</v>
+        <v>32539</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33526</v>
+        <v>34233</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>79692</v>
+        <v>82124</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46528</v>
+        <v>45093</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46989</v>
+        <v>47944</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>96926</v>
+        <v>96398</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22843</v>
+        <v>22239</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20894</v>
+        <v>22014</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30010</v>
+        <v>30049</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59620</v>
+        <v>60325</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60083</v>
+        <v>63019</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>118657</v>
+        <v>119755</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35260</v>
+        <v>33904</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54379</v>
+        <v>53571</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>173602</v>
+        <v>171716</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19186</v>
+        <v>19352</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33263</v>
+        <v>32921</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>105542</v>
+        <v>106427</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59888</v>
+        <v>58381</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>95487</v>
+        <v>94507</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>291271</v>
+        <v>286097</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64148</v>
+        <v>62912</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>88246</v>
+        <v>86473</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>234519</v>
+        <v>233121</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>42243</v>
+        <v>41834</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>59762</v>
+        <v>59102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142300</v>
+        <v>143555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>96507</v>
+        <v>94146</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>138426</v>
+        <v>136721</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>358815</v>
+        <v>359306</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20518</v>
+        <v>20583</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28816</v>
+        <v>29294</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>68188</v>
+        <v>66958</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9451</v>
+        <v>9374</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24206</v>
+        <v>24633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>72213</v>
+        <v>72783</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>33840</v>
+        <v>34535</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>60115</v>
+        <v>60429</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>147856</v>
+        <v>151299</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43313</v>
+        <v>42485</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55520</v>
+        <v>53649</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>105932</v>
+        <v>106356</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26811</v>
+        <v>25498</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48722</v>
+        <v>48903</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>103454</v>
+        <v>103849</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>61369</v>
+        <v>61892</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>93205</v>
+        <v>94728</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>198510</v>
+        <v>199351</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12651</v>
+        <v>13008</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22796</v>
+        <v>21618</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>63841</v>
+        <v>64624</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>35102</v>
+        <v>34811</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>27499</v>
+        <v>27745</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>66280</v>
+        <v>66598</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>51202</v>
+        <v>52555</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>55159</v>
+        <v>55142</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>137868</v>
+        <v>136464</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29876</v>
+        <v>29752</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44027</v>
+        <v>43353</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>111302</v>
+        <v>111055</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>61766</v>
+        <v>63312</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>51894</v>
+        <v>51939</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>103171</v>
+        <v>103180</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>84231</v>
+        <v>84288</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>90260</v>
+        <v>88087</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>202537</v>
+        <v>201910</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>161401</v>
+        <v>159079</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>224791</v>
+        <v>226118</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>612522</v>
+        <v>604531</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>115627</v>
+        <v>110992</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>159426</v>
+        <v>159254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>455662</v>
+        <v>453859</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>282494</v>
+        <v>284341</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>397640</v>
+        <v>399679</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1089113</v>
+        <v>1092999</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>212722</v>
+        <v>209443</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>287649</v>
+        <v>287260</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>719670</v>
+        <v>720304</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>160489</v>
+        <v>160505</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>213635</v>
+        <v>211779</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>530323</v>
+        <v>530643</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>353511</v>
+        <v>354960</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>482405</v>
+        <v>486512</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1223464</v>
+        <v>1220610</v>
       </c>
     </row>
     <row r="32">
